--- a/IA_2425_GroupEvaluation_TP2_Group4.xlsx
+++ b/IA_2425_GroupEvaluation_TP2_Group4.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829B45E-E4A2-41B1-8DA3-13DF2856447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>XYZ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Group</t>
   </si>
@@ -63,14 +61,11 @@
   <si>
     <t>Justification in case that % is not equal to all students</t>
   </si>
-  <si>
-    <t>1, 2, 3, 4 or 5</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,70 +417,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:7" ht="18" x14ac:dyDescent="0.35">
       <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>

--- a/IA_2425_GroupEvaluation_TP2_Group4.xlsx
+++ b/IA_2425_GroupEvaluation_TP2_Group4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829B45E-E4A2-41B1-8DA3-13DF2856447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D9197-09DD-4B84-B985-373CFC0DE050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Group</t>
   </si>
@@ -29,15 +29,6 @@
   </si>
   <si>
     <t>Student</t>
-  </si>
-  <si>
-    <t>Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
   </si>
   <si>
     <r>
@@ -60,6 +51,24 @@
   </si>
   <si>
     <t>Justification in case that % is not equal to all students</t>
+  </si>
+  <si>
+    <t>Orlando Miguel Carvalho-Soares (up202303606)</t>
+  </si>
+  <si>
+    <t>Maximiliano Vítor Phillips e Sá (up202305979)</t>
+  </si>
+  <si>
+    <t>Rui Jorge Pereira Rua (up202305259)</t>
+  </si>
+  <si>
+    <t>Implementação do código dataset.py e gerar o dataset. Testar algoritmo MCTS.</t>
+  </si>
+  <si>
+    <t>Implementação do código mcts.py, ConnectState.py, game.py, stats.py, escrever o relatório e gerar o dataset.</t>
+  </si>
+  <si>
+    <t>Implementação do código mcts.py, tree.py, meta.py, ConnectState.py, game.py, escrever o relatório e gerar o dataset.</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,6 +147,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,14 +436,14 @@
   <dimension ref="D3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
     <col min="7" max="7" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,37 +468,49 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
   </sheetData>

--- a/IA_2425_GroupEvaluation_TP2_Group4.xlsx
+++ b/IA_2425_GroupEvaluation_TP2_Group4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D9197-09DD-4B84-B985-373CFC0DE050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172A163-458C-4332-8381-892661A9D941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Group</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Implementação do código mcts.py, tree.py, meta.py, ConnectState.py, game.py, escrever o relatório e gerar o dataset.</t>
+  </si>
+  <si>
+    <t>Não tinha muito tempo livre e os outros alunos já tinham implementado a maioria dos algoritmos.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="D3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +514,9 @@
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
